--- a/invigilator_assignments.xlsx
+++ b/invigilator_assignments.xlsx
@@ -35,8 +35,26 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="0090ea47"/>
-        <bgColor rgb="0090ea47"/>
+        <fgColor rgb="00a747ea"/>
+        <bgColor rgb="00a747ea"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="009bea47"/>
+        <bgColor rgb="009bea47"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="006dea47"/>
+        <bgColor rgb="006dea47"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00ea4775"/>
+        <bgColor rgb="00ea4775"/>
       </patternFill>
     </fill>
     <fill>
@@ -47,8 +65,392 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="0047b6ea"/>
+        <bgColor rgb="0047b6ea"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0047ea5a"/>
+        <bgColor rgb="0047ea5a"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0047eacd"/>
+        <bgColor rgb="0047eacd"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00c947ea"/>
+        <bgColor rgb="00c947ea"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="00b2ea47"/>
         <bgColor rgb="00b2ea47"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00ea4769"/>
+        <bgColor rgb="00ea4769"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0047ea7d"/>
+        <bgColor rgb="0047ea7d"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0047abea"/>
+        <bgColor rgb="0047abea"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00c9ea47"/>
+        <bgColor rgb="00c9ea47"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00ea9847"/>
+        <bgColor rgb="00ea9847"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00eaba47"/>
+        <bgColor rgb="00eaba47"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="009b47ea"/>
+        <bgColor rgb="009b47ea"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00ea5e47"/>
+        <bgColor rgb="00ea5e47"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0047ea9f"/>
+        <bgColor rgb="0047ea9f"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00ea47e8"/>
+        <bgColor rgb="00ea47e8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00ea7547"/>
+        <bgColor rgb="00ea7547"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="009047ea"/>
+        <bgColor rgb="009047ea"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="004bea47"/>
+        <bgColor rgb="004bea47"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00a7ea47"/>
+        <bgColor rgb="00a7ea47"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="004771ea"/>
+        <bgColor rgb="004771ea"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0047ea88"/>
+        <bgColor rgb="0047ea88"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00ea47c6"/>
+        <bgColor rgb="00ea47c6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0090ea47"/>
+        <bgColor rgb="0090ea47"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0079ea47"/>
+        <bgColor rgb="0079ea47"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00ea8147"/>
+        <bgColor rgb="00ea8147"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00ead147"/>
+        <bgColor rgb="00ead147"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="008447ea"/>
+        <bgColor rgb="008447ea"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00ea47a3"/>
+        <bgColor rgb="00ea47a3"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00d547ea"/>
+        <bgColor rgb="00d547ea"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0047ead9"/>
+        <bgColor rgb="0047ead9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00beea47"/>
+        <bgColor rgb="00beea47"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00ea475e"/>
+        <bgColor rgb="00ea475e"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00e047ea"/>
+        <bgColor rgb="00e047ea"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0047cdea"/>
+        <bgColor rgb="0047cdea"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="004794ea"/>
+        <bgColor rgb="004794ea"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00ea4798"/>
+        <bgColor rgb="00ea4798"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00b247ea"/>
+        <bgColor rgb="00b247ea"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00ea47dd"/>
+        <bgColor rgb="00ea47dd"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00eaa347"/>
+        <bgColor rgb="00eaa347"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0047d9ea"/>
+        <bgColor rgb="0047d9ea"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0047eae4"/>
+        <bgColor rgb="0047eae4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="004788ea"/>
+        <bgColor rgb="004788ea"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00ea4780"/>
+        <bgColor rgb="00ea4780"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00eae847"/>
+        <bgColor rgb="00eae847"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00eaaf47"/>
+        <bgColor rgb="00eaaf47"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0047eac2"/>
+        <bgColor rgb="0047eac2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00d5ea47"/>
+        <bgColor rgb="00d5ea47"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0062ea47"/>
+        <bgColor rgb="0062ea47"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0047ea94"/>
+        <bgColor rgb="0047ea94"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00ea4752"/>
+        <bgColor rgb="00ea4752"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00ea47ba"/>
+        <bgColor rgb="00ea47ba"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00ea47af"/>
+        <bgColor rgb="00ea47af"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0047ea71"/>
+        <bgColor rgb="0047ea71"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="005647ea"/>
+        <bgColor rgb="005647ea"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00eac647"/>
+        <bgColor rgb="00eac647"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00eadd47"/>
+        <bgColor rgb="00eadd47"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00ea8c47"/>
+        <bgColor rgb="00ea8c47"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="006247ea"/>
+        <bgColor rgb="006247ea"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="004b47ea"/>
+        <bgColor rgb="004b47ea"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00ea5247"/>
+        <bgColor rgb="00ea5247"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="004766ea"/>
+        <bgColor rgb="004766ea"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00ea6947"/>
+        <bgColor rgb="00ea6947"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00e1ea47"/>
+        <bgColor rgb="00e1ea47"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0047eab6"/>
+        <bgColor rgb="0047eab6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0047ea4f"/>
+        <bgColor rgb="0047ea4f"/>
       </patternFill>
     </fill>
     <fill>
@@ -59,134 +461,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00ea47ba"/>
-        <bgColor rgb="00ea47ba"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00ea5247"/>
-        <bgColor rgb="00ea5247"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="004794ea"/>
-        <bgColor rgb="004794ea"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00ea47dd"/>
-        <bgColor rgb="00ea47dd"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00eac647"/>
-        <bgColor rgb="00eac647"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0047ea88"/>
-        <bgColor rgb="0047ea88"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="008447ea"/>
-        <bgColor rgb="008447ea"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0047eacd"/>
-        <bgColor rgb="0047eacd"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00ea9847"/>
-        <bgColor rgb="00ea9847"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00ea4752"/>
-        <bgColor rgb="00ea4752"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00ea4769"/>
-        <bgColor rgb="00ea4769"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00ea47c6"/>
-        <bgColor rgb="00ea47c6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00d547ea"/>
-        <bgColor rgb="00d547ea"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0047b6ea"/>
-        <bgColor rgb="0047b6ea"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00e1ea47"/>
-        <bgColor rgb="00e1ea47"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00e047ea"/>
-        <bgColor rgb="00e047ea"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00eaa347"/>
-        <bgColor rgb="00eaa347"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00ea8147"/>
-        <bgColor rgb="00ea8147"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0047eac2"/>
-        <bgColor rgb="0047eac2"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00ea4775"/>
-        <bgColor rgb="00ea4775"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00ea5e47"/>
-        <bgColor rgb="00ea5e47"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0047ea7d"/>
-        <bgColor rgb="0047ea7d"/>
+        <fgColor rgb="006d47ea"/>
+        <bgColor rgb="006d47ea"/>
       </patternFill>
     </fill>
     <fill>
@@ -197,290 +473,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="006247ea"/>
-        <bgColor rgb="006247ea"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00d5ea47"/>
-        <bgColor rgb="00d5ea47"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="004766ea"/>
-        <bgColor rgb="004766ea"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00c9ea47"/>
-        <bgColor rgb="00c9ea47"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00ea475e"/>
-        <bgColor rgb="00ea475e"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00a7ea47"/>
-        <bgColor rgb="00a7ea47"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00ea4780"/>
-        <bgColor rgb="00ea4780"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00eadd47"/>
-        <bgColor rgb="00eadd47"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00ead147"/>
-        <bgColor rgb="00ead147"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00ea7547"/>
-        <bgColor rgb="00ea7547"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="004b47ea"/>
-        <bgColor rgb="004b47ea"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0047ea5a"/>
-        <bgColor rgb="0047ea5a"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0047ea94"/>
-        <bgColor rgb="0047ea94"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0062ea47"/>
-        <bgColor rgb="0062ea47"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="009047ea"/>
-        <bgColor rgb="009047ea"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="006dea47"/>
-        <bgColor rgb="006dea47"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0047ea9f"/>
-        <bgColor rgb="0047ea9f"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="009b47ea"/>
-        <bgColor rgb="009b47ea"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="004788ea"/>
-        <bgColor rgb="004788ea"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0047abea"/>
-        <bgColor rgb="0047abea"/>
+        <fgColor rgb="0047c2ea"/>
+        <bgColor rgb="0047c2ea"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="0084ea47"/>
         <bgColor rgb="0084ea47"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0079ea47"/>
-        <bgColor rgb="0079ea47"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00a747ea"/>
-        <bgColor rgb="00a747ea"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00c947ea"/>
-        <bgColor rgb="00c947ea"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00ea4798"/>
-        <bgColor rgb="00ea4798"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00ea47e8"/>
-        <bgColor rgb="00ea47e8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0047ea71"/>
-        <bgColor rgb="0047ea71"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00eaba47"/>
-        <bgColor rgb="00eaba47"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00beea47"/>
-        <bgColor rgb="00beea47"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0047cdea"/>
-        <bgColor rgb="0047cdea"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="009bea47"/>
-        <bgColor rgb="009bea47"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00ea8c47"/>
-        <bgColor rgb="00ea8c47"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0047ea4f"/>
-        <bgColor rgb="0047ea4f"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="006d47ea"/>
-        <bgColor rgb="006d47ea"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="005647ea"/>
-        <bgColor rgb="005647ea"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0047eab6"/>
-        <bgColor rgb="0047eab6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00eae847"/>
-        <bgColor rgb="00eae847"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00b247ea"/>
-        <bgColor rgb="00b247ea"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00eaaf47"/>
-        <bgColor rgb="00eaaf47"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="004771ea"/>
-        <bgColor rgb="004771ea"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="004bea47"/>
-        <bgColor rgb="004bea47"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00ea47a3"/>
-        <bgColor rgb="00ea47a3"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0047ead9"/>
-        <bgColor rgb="0047ead9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0047d9ea"/>
-        <bgColor rgb="0047d9ea"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00ea47af"/>
-        <bgColor rgb="00ea47af"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00ea6947"/>
-        <bgColor rgb="00ea6947"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0047c2ea"/>
-        <bgColor rgb="0047c2ea"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0047eae4"/>
-        <bgColor rgb="0047eae4"/>
       </patternFill>
     </fill>
   </fills>
@@ -1079,9 +1079,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="H2" s="1" t="inlineStr">
-        <is>
-          <t>Exam32</t>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -1114,9 +1114,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="O2" s="2" t="inlineStr">
-        <is>
-          <t>Exam66</t>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
@@ -1134,9 +1134,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="S2" s="3" t="inlineStr">
-        <is>
-          <t>Exam74</t>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -1166,9 +1166,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="F3" s="1" t="inlineStr">
+        <is>
+          <t>Exam25</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -1191,9 +1191,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="K3" s="4" t="inlineStr">
-        <is>
-          <t>Exam47</t>
+      <c r="K3" s="2" t="inlineStr">
+        <is>
+          <t>Exam46</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
@@ -1201,9 +1201,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="M3" s="5" t="inlineStr">
-        <is>
-          <t>Exam55</t>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
@@ -1231,9 +1231,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="S3" s="6" t="inlineStr">
-        <is>
-          <t>Exam71</t>
+      <c r="S3" s="3" t="inlineStr">
+        <is>
+          <t>Exam75</t>
         </is>
       </c>
     </row>
@@ -1298,9 +1298,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="M4" s="4" t="inlineStr">
+        <is>
+          <t>Exam56</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
@@ -1308,9 +1308,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="O4" s="7" t="inlineStr">
-        <is>
-          <t>Exam65</t>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
@@ -1350,14 +1350,14 @@
           <t>-</t>
         </is>
       </c>
-      <c r="D5" s="8" t="inlineStr">
-        <is>
-          <t>Exam12</t>
-        </is>
-      </c>
-      <c r="E5" s="9" t="inlineStr">
-        <is>
-          <t>Exam16</t>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -1370,9 +1370,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="H5" s="10" t="inlineStr">
-        <is>
-          <t>Exam34</t>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -1405,14 +1405,14 @@
           <t>-</t>
         </is>
       </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="P5" s="11" t="inlineStr">
-        <is>
-          <t>Exam67</t>
+      <c r="O5" s="5" t="inlineStr">
+        <is>
+          <t>Exam66</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
@@ -1457,9 +1457,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="F6" s="6" t="inlineStr">
+        <is>
+          <t>Exam22</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -1472,9 +1472,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="I6" s="12" t="inlineStr">
-        <is>
-          <t>Exam35</t>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -1522,9 +1522,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="S6" s="13" t="inlineStr">
-        <is>
-          <t>Exam72</t>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -1534,9 +1534,9 @@
           <t>Amelia White</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="B7" s="7" t="inlineStr">
+        <is>
+          <t>Exam5</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -1544,9 +1544,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="D7" s="14" t="inlineStr">
-        <is>
-          <t>Exam14</t>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -1569,9 +1569,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="I7" s="8" t="inlineStr">
+        <is>
+          <t>Exam35</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -1604,9 +1604,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="P7" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="P7" s="9" t="inlineStr">
+        <is>
+          <t>Exam68</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
@@ -1619,7 +1619,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="S7" s="3" t="inlineStr">
+      <c r="S7" s="10" t="inlineStr">
         <is>
           <t>Exam74</t>
         </is>
@@ -1671,14 +1671,14 @@
           <t>-</t>
         </is>
       </c>
-      <c r="J8" s="15" t="inlineStr">
+      <c r="J8" s="11" t="inlineStr">
         <is>
           <t>Exam42</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="K8" s="12" t="inlineStr">
+        <is>
+          <t>Exam48</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
@@ -1701,9 +1701,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="P8" s="16" t="inlineStr">
-        <is>
-          <t>Exam69</t>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
@@ -1716,9 +1716,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="S8" s="13" t="inlineStr">
-        <is>
-          <t>Exam72</t>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -1733,9 +1733,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="C9" s="13" t="inlineStr">
+        <is>
+          <t>Exam8</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -1743,9 +1743,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="E9" s="14" t="inlineStr">
+        <is>
+          <t>Exam17</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -1778,9 +1778,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="L9" s="17" t="inlineStr">
-        <is>
-          <t>Exam54</t>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
@@ -1798,9 +1798,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="P9" s="11" t="inlineStr">
-        <is>
-          <t>Exam67</t>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
@@ -1813,9 +1813,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="S9" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="S9" s="15" t="inlineStr">
+        <is>
+          <t>Exam72</t>
         </is>
       </c>
     </row>
@@ -1845,9 +1845,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="F10" s="18" t="inlineStr">
-        <is>
-          <t>Exam22</t>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -1855,9 +1855,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="H10" s="10" t="inlineStr">
-        <is>
-          <t>Exam34</t>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -1937,9 +1937,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="E11" s="14" t="inlineStr">
+        <is>
+          <t>Exam17</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -1947,9 +1947,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="G11" s="16" t="inlineStr">
+        <is>
+          <t>Exam30</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -1957,9 +1957,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="I11" s="17" t="inlineStr">
+        <is>
+          <t>Exam39</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -1967,9 +1967,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="K11" s="19" t="inlineStr">
-        <is>
-          <t>Exam45</t>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
@@ -1982,9 +1982,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="N11" s="18" t="inlineStr">
+        <is>
+          <t>Exam57</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
@@ -2007,7 +2007,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="S11" s="13" t="inlineStr">
+      <c r="S11" s="15" t="inlineStr">
         <is>
           <t>Exam72</t>
         </is>
@@ -2024,9 +2024,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="C12" s="19" t="inlineStr">
+        <is>
+          <t>Exam6</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -2044,9 +2044,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="G12" s="20" t="inlineStr">
+        <is>
+          <t>Exam26</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -2059,9 +2059,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="J12" s="20" t="inlineStr">
-        <is>
-          <t>Exam40</t>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
@@ -2084,7 +2084,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="O12" s="2" t="inlineStr">
+      <c r="O12" s="5" t="inlineStr">
         <is>
           <t>Exam66</t>
         </is>
@@ -2176,9 +2176,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="N13" s="21" t="inlineStr">
-        <is>
-          <t>Exam58</t>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
@@ -2201,9 +2201,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="S13" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="S13" s="3" t="inlineStr">
+        <is>
+          <t>Exam75</t>
         </is>
       </c>
     </row>
@@ -2223,9 +2223,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="D14" s="22" t="inlineStr">
-        <is>
-          <t>Exam15</t>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -2238,9 +2238,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="G14" s="21" t="inlineStr">
+        <is>
+          <t>Exam29</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -2248,9 +2248,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="I14" s="17" t="inlineStr">
+        <is>
+          <t>Exam39</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -2258,24 +2258,24 @@
           <t>-</t>
         </is>
       </c>
-      <c r="K14" s="23" t="inlineStr">
-        <is>
-          <t>Exam49</t>
-        </is>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="M14" s="24" t="inlineStr">
-        <is>
-          <t>Exam56</t>
-        </is>
-      </c>
-      <c r="N14" s="25" t="inlineStr">
-        <is>
-          <t>Exam57</t>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L14" s="22" t="inlineStr">
+        <is>
+          <t>Exam53</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
@@ -2340,9 +2340,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="H15" s="23" t="inlineStr">
+        <is>
+          <t>Exam33</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -2355,9 +2355,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="K15" s="26" t="inlineStr">
-        <is>
-          <t>Exam48</t>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
@@ -2370,14 +2370,14 @@
           <t>-</t>
         </is>
       </c>
-      <c r="N15" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="O15" s="2" t="inlineStr">
-        <is>
-          <t>Exam66</t>
+      <c r="N15" s="24" t="inlineStr">
+        <is>
+          <t>Exam60</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
       <c r="P15" t="inlineStr">
@@ -2395,9 +2395,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="S15" s="3" t="inlineStr">
-        <is>
-          <t>Exam74</t>
+      <c r="S15" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -2417,9 +2417,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="D16" s="14" t="inlineStr">
-        <is>
-          <t>Exam14</t>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -2427,9 +2427,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="F16" s="25" t="inlineStr">
+        <is>
+          <t>Exam23</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -2437,14 +2437,14 @@
           <t>-</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I16" s="27" t="inlineStr">
-        <is>
-          <t>Exam37</t>
+      <c r="H16" s="26" t="inlineStr">
+        <is>
+          <t>Exam34</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -2457,9 +2457,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="L16" s="22" t="inlineStr">
+        <is>
+          <t>Exam53</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
@@ -2477,9 +2477,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="P16" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="P16" s="27" t="inlineStr">
+        <is>
+          <t>Exam69</t>
         </is>
       </c>
       <c r="Q16" t="inlineStr">
@@ -2524,9 +2524,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="F17" s="28" t="inlineStr">
-        <is>
-          <t>Exam24</t>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -2534,9 +2534,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="H17" s="29" t="inlineStr">
-        <is>
-          <t>Exam31</t>
+      <c r="H17" s="28" t="inlineStr">
+        <is>
+          <t>Exam32</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -2569,9 +2569,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="O17" s="2" t="inlineStr">
-        <is>
-          <t>Exam66</t>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
       <c r="P17" t="inlineStr">
@@ -2589,9 +2589,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="S17" s="13" t="inlineStr">
-        <is>
-          <t>Exam72</t>
+      <c r="S17" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -2606,9 +2606,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="C18" s="30" t="inlineStr">
-        <is>
-          <t>Exam9</t>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -2616,9 +2616,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="E18" s="31" t="inlineStr">
-        <is>
-          <t>Exam17</t>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -2626,9 +2626,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="G18" s="32" t="inlineStr">
-        <is>
-          <t>Exam28</t>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -2656,14 +2656,14 @@
           <t>-</t>
         </is>
       </c>
-      <c r="M18" s="24" t="inlineStr">
-        <is>
-          <t>Exam56</t>
-        </is>
-      </c>
-      <c r="N18" s="33" t="inlineStr">
-        <is>
-          <t>Exam60</t>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
@@ -2671,9 +2671,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="P18" s="34" t="inlineStr">
-        <is>
-          <t>Exam70</t>
+      <c r="P18" s="9" t="inlineStr">
+        <is>
+          <t>Exam68</t>
         </is>
       </c>
       <c r="Q18" t="inlineStr">
@@ -2686,9 +2686,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="S18" s="35" t="inlineStr">
-        <is>
-          <t>Exam73</t>
+      <c r="S18" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -2698,9 +2698,9 @@
           <t>Clara Green</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="B19" s="29" t="inlineStr">
+        <is>
+          <t>Exam4</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -2708,9 +2708,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="D19" s="30" t="inlineStr">
+        <is>
+          <t>Exam15</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -2728,9 +2728,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="H19" s="10" t="inlineStr">
-        <is>
-          <t>Exam34</t>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -2758,9 +2758,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="N19" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="N19" s="24" t="inlineStr">
+        <is>
+          <t>Exam60</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
@@ -2795,7 +2795,7 @@
           <t>Daniel Adams</t>
         </is>
       </c>
-      <c r="B20" s="36" t="inlineStr">
+      <c r="B20" s="31" t="inlineStr">
         <is>
           <t>Exam2</t>
         </is>
@@ -2820,14 +2820,14 @@
           <t>-</t>
         </is>
       </c>
-      <c r="G20" s="37" t="inlineStr">
-        <is>
-          <t>Exam29</t>
-        </is>
-      </c>
-      <c r="H20" s="10" t="inlineStr">
-        <is>
-          <t>Exam34</t>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -2840,9 +2840,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="K20" s="26" t="inlineStr">
-        <is>
-          <t>Exam48</t>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
@@ -2855,9 +2855,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="N20" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="N20" s="18" t="inlineStr">
+        <is>
+          <t>Exam57</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
@@ -2865,7 +2865,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="P20" s="11" t="inlineStr">
+      <c r="P20" s="32" t="inlineStr">
         <is>
           <t>Exam67</t>
         </is>
@@ -2907,9 +2907,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="E21" s="14" t="inlineStr">
+        <is>
+          <t>Exam17</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -2942,9 +2942,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="L21" s="38" t="inlineStr">
-        <is>
-          <t>Exam52</t>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
@@ -2989,9 +2989,9 @@
           <t>Dorothy Carter</t>
         </is>
       </c>
-      <c r="B22" s="39" t="inlineStr">
-        <is>
-          <t>Exam5</t>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -3014,9 +3014,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="G22" s="33" t="inlineStr">
+        <is>
+          <t>Exam27</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -3039,9 +3039,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="L22" s="34" t="inlineStr">
+        <is>
+          <t>Exam54</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
@@ -3074,9 +3074,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="S22" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="S22" s="15" t="inlineStr">
+        <is>
+          <t>Exam72</t>
         </is>
       </c>
     </row>
@@ -3101,29 +3101,29 @@
           <t>-</t>
         </is>
       </c>
-      <c r="E23" s="40" t="inlineStr">
-        <is>
-          <t>Exam20</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G23" s="32" t="inlineStr">
-        <is>
-          <t>Exam28</t>
-        </is>
-      </c>
-      <c r="H23" s="10" t="inlineStr">
-        <is>
-          <t>Exam34</t>
-        </is>
-      </c>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F23" s="1" t="inlineStr">
+        <is>
+          <t>Exam25</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I23" s="8" t="inlineStr">
+        <is>
+          <t>Exam35</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -3151,9 +3151,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="O23" s="41" t="inlineStr">
-        <is>
-          <t>Exam61</t>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
       <c r="P23" t="inlineStr">
@@ -3171,9 +3171,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="S23" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="S23" s="10" t="inlineStr">
+        <is>
+          <t>Exam74</t>
         </is>
       </c>
     </row>
@@ -3183,9 +3183,9 @@
           <t>Eleanor Collins</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="B24" s="29" t="inlineStr">
+        <is>
+          <t>Exam4</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -3203,9 +3203,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="F24" s="35" t="inlineStr">
+        <is>
+          <t>Exam21</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
@@ -3218,9 +3218,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="I24" s="12" t="inlineStr">
-        <is>
-          <t>Exam35</t>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -3233,9 +3233,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="L24" s="42" t="inlineStr">
-        <is>
-          <t>Exam53</t>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
@@ -3248,14 +3248,14 @@
           <t>-</t>
         </is>
       </c>
-      <c r="O24" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="P24" s="16" t="inlineStr">
-        <is>
-          <t>Exam69</t>
+      <c r="O24" s="5" t="inlineStr">
+        <is>
+          <t>Exam66</t>
+        </is>
+      </c>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
       <c r="Q24" t="inlineStr">
@@ -3268,9 +3268,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="S24" s="43" t="inlineStr">
-        <is>
-          <t>Exam75</t>
+      <c r="S24" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -3285,9 +3285,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="C25" s="44" t="inlineStr">
-        <is>
-          <t>Exam6</t>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -3305,19 +3305,19 @@
           <t>-</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I25" s="45" t="inlineStr">
-        <is>
-          <t>Exam39</t>
+      <c r="G25" s="20" t="inlineStr">
+        <is>
+          <t>Exam26</t>
+        </is>
+      </c>
+      <c r="H25" s="23" t="inlineStr">
+        <is>
+          <t>Exam33</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -3335,9 +3335,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="M25" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="M25" s="4" t="inlineStr">
+        <is>
+          <t>Exam56</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
@@ -3345,7 +3345,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="O25" s="2" t="inlineStr">
+      <c r="O25" s="5" t="inlineStr">
         <is>
           <t>Exam66</t>
         </is>
@@ -3397,9 +3397,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="F26" s="25" t="inlineStr">
+        <is>
+          <t>Exam23</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
@@ -3407,9 +3407,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="H26" s="29" t="inlineStr">
-        <is>
-          <t>Exam31</t>
+      <c r="H26" s="26" t="inlineStr">
+        <is>
+          <t>Exam34</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -3422,9 +3422,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="K26" s="46" t="inlineStr">
-        <is>
-          <t>Exam51</t>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
@@ -3442,9 +3442,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="O26" s="2" t="inlineStr">
-        <is>
-          <t>Exam66</t>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
       <c r="P26" t="inlineStr">
@@ -3462,9 +3462,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="S26" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="S26" s="15" t="inlineStr">
+        <is>
+          <t>Exam72</t>
         </is>
       </c>
     </row>
@@ -3474,9 +3474,9 @@
           <t>Emma Cook</t>
         </is>
       </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="B27" s="36" t="inlineStr">
+        <is>
+          <t>Exam3</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -3489,9 +3489,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="E27" s="14" t="inlineStr">
+        <is>
+          <t>Exam17</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -3499,9 +3499,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="G27" s="37" t="inlineStr">
+        <is>
+          <t>Exam28</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
@@ -3514,14 +3514,14 @@
           <t>-</t>
         </is>
       </c>
-      <c r="J27" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="J27" s="38" t="inlineStr">
+        <is>
+          <t>Exam40</t>
+        </is>
+      </c>
+      <c r="K27" s="39" t="inlineStr">
+        <is>
+          <t>Exam50</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
@@ -3539,7 +3539,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="O27" s="7" t="inlineStr">
+      <c r="O27" s="40" t="inlineStr">
         <is>
           <t>Exam65</t>
         </is>
@@ -3559,9 +3559,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="S27" s="3" t="inlineStr">
-        <is>
-          <t>Exam74</t>
+      <c r="S27" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -3581,14 +3581,14 @@
           <t>-</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E28" s="31" t="inlineStr">
-        <is>
-          <t>Exam17</t>
+      <c r="D28" s="41" t="inlineStr">
+        <is>
+          <t>Exam13</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -3596,9 +3596,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="G28" s="37" t="inlineStr">
-        <is>
-          <t>Exam29</t>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
@@ -3616,9 +3616,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="K28" s="23" t="inlineStr">
-        <is>
-          <t>Exam49</t>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
@@ -3668,19 +3668,19 @@
           <t>Florence Reed</t>
         </is>
       </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C29" s="47" t="inlineStr">
-        <is>
-          <t>Exam8</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="B29" s="31" t="inlineStr">
+        <is>
+          <t>Exam2</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D29" s="42" t="inlineStr">
+        <is>
+          <t>Exam11</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -3718,9 +3718,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="L29" s="17" t="inlineStr">
-        <is>
-          <t>Exam54</t>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
@@ -3728,14 +3728,14 @@
           <t>-</t>
         </is>
       </c>
-      <c r="N29" s="21" t="inlineStr">
-        <is>
-          <t>Exam58</t>
-        </is>
-      </c>
-      <c r="O29" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="O29" s="5" t="inlineStr">
+        <is>
+          <t>Exam66</t>
         </is>
       </c>
       <c r="P29" t="inlineStr">
@@ -3765,9 +3765,9 @@
           <t>Francis Morris</t>
         </is>
       </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="B30" s="29" t="inlineStr">
+        <is>
+          <t>Exam4</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -3775,14 +3775,14 @@
           <t>-</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E30" s="48" t="inlineStr">
-        <is>
-          <t>Exam18</t>
+      <c r="D30" s="43" t="inlineStr">
+        <is>
+          <t>Exam12</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -3825,9 +3825,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="N30" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="N30" s="44" t="inlineStr">
+        <is>
+          <t>Exam58</t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
@@ -3862,9 +3862,9 @@
           <t>Frederick Bell</t>
         </is>
       </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="B31" s="36" t="inlineStr">
+        <is>
+          <t>Exam3</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -3892,9 +3892,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="H31" s="10" t="inlineStr">
-        <is>
-          <t>Exam34</t>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
@@ -3907,9 +3907,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="K31" s="39" t="inlineStr">
+        <is>
+          <t>Exam50</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
@@ -3927,14 +3927,14 @@
           <t>-</t>
         </is>
       </c>
-      <c r="O31" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="P31" s="34" t="inlineStr">
-        <is>
-          <t>Exam70</t>
+      <c r="O31" s="45" t="inlineStr">
+        <is>
+          <t>Exam64</t>
+        </is>
+      </c>
+      <c r="P31" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
       <c r="Q31" t="inlineStr">
@@ -3947,9 +3947,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="S31" s="43" t="inlineStr">
-        <is>
-          <t>Exam75</t>
+      <c r="S31" s="15" t="inlineStr">
+        <is>
+          <t>Exam72</t>
         </is>
       </c>
     </row>
@@ -3964,9 +3964,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="C32" s="46" t="inlineStr">
+        <is>
+          <t>Exam7</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -3994,9 +3994,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="I32" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="I32" s="8" t="inlineStr">
+        <is>
+          <t>Exam35</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -4004,9 +4004,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="K32" s="47" t="inlineStr">
+        <is>
+          <t>Exam51</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
@@ -4029,9 +4029,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="P32" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="P32" s="48" t="inlineStr">
+        <is>
+          <t>Exam70</t>
         </is>
       </c>
       <c r="Q32" t="inlineStr">
@@ -4056,9 +4056,9 @@
           <t>Grace Murphy</t>
         </is>
       </c>
-      <c r="B33" s="49" t="inlineStr">
-        <is>
-          <t>Exam4</t>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -4091,9 +4091,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="I33" s="12" t="inlineStr">
-        <is>
-          <t>Exam35</t>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -4116,9 +4116,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="N33" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="N33" s="49" t="inlineStr">
+        <is>
+          <t>Exam59</t>
         </is>
       </c>
       <c r="O33" t="inlineStr">
@@ -4141,9 +4141,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="S33" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="S33" s="10" t="inlineStr">
+        <is>
+          <t>Exam74</t>
         </is>
       </c>
     </row>
@@ -4188,9 +4188,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="I34" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="I34" s="8" t="inlineStr">
+        <is>
+          <t>Exam35</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -4223,9 +4223,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="P34" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="P34" s="32" t="inlineStr">
+        <is>
+          <t>Exam67</t>
         </is>
       </c>
       <c r="Q34" t="inlineStr">
@@ -4238,9 +4238,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="S34" s="3" t="inlineStr">
-        <is>
-          <t>Exam74</t>
+      <c r="S34" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -4275,14 +4275,14 @@
           <t>-</t>
         </is>
       </c>
-      <c r="G35" s="32" t="inlineStr">
-        <is>
-          <t>Exam28</t>
-        </is>
-      </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H35" s="26" t="inlineStr">
+        <is>
+          <t>Exam34</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
@@ -4295,9 +4295,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="K35" s="12" t="inlineStr">
+        <is>
+          <t>Exam48</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
@@ -4305,9 +4305,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="M35" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="M35" s="4" t="inlineStr">
+        <is>
+          <t>Exam56</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
@@ -4315,14 +4315,14 @@
           <t>-</t>
         </is>
       </c>
-      <c r="O35" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="P35" s="11" t="inlineStr">
-        <is>
-          <t>Exam67</t>
+      <c r="O35" s="5" t="inlineStr">
+        <is>
+          <t>Exam66</t>
+        </is>
+      </c>
+      <c r="P35" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
       <c r="Q35" t="inlineStr">
@@ -4335,9 +4335,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="S35" s="3" t="inlineStr">
-        <is>
-          <t>Exam74</t>
+      <c r="S35" s="15" t="inlineStr">
+        <is>
+          <t>Exam72</t>
         </is>
       </c>
     </row>
@@ -4367,9 +4367,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="F36" s="50" t="inlineStr">
-        <is>
-          <t>Exam25</t>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
@@ -4377,9 +4377,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="H36" s="26" t="inlineStr">
+        <is>
+          <t>Exam34</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
@@ -4392,9 +4392,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="K36" s="50" t="inlineStr">
+        <is>
+          <t>Exam44</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
@@ -4432,9 +4432,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="S36" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="S36" s="15" t="inlineStr">
+        <is>
+          <t>Exam72</t>
         </is>
       </c>
     </row>
@@ -4489,9 +4489,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="K37" s="51" t="inlineStr">
+        <is>
+          <t>Exam49</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
@@ -4504,9 +4504,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="N37" s="21" t="inlineStr">
-        <is>
-          <t>Exam58</t>
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
       <c r="O37" t="inlineStr">
@@ -4514,9 +4514,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="P37" s="51" t="inlineStr">
-        <is>
-          <t>Exam68</t>
+      <c r="P37" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
       <c r="Q37" t="inlineStr">
@@ -4551,9 +4551,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="D38" s="52" t="inlineStr">
-        <is>
-          <t>Exam13</t>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -4606,9 +4606,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="O38" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="O38" s="5" t="inlineStr">
+        <is>
+          <t>Exam66</t>
         </is>
       </c>
       <c r="P38" t="inlineStr">
@@ -4663,14 +4663,14 @@
           <t>-</t>
         </is>
       </c>
-      <c r="G39" s="53" t="inlineStr">
-        <is>
-          <t>Exam26</t>
-        </is>
-      </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H39" s="52" t="inlineStr">
+        <is>
+          <t>Exam31</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
@@ -4703,9 +4703,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="O39" s="2" t="inlineStr">
-        <is>
-          <t>Exam66</t>
+      <c r="O39" s="53" t="inlineStr">
+        <is>
+          <t>Exam61</t>
         </is>
       </c>
       <c r="P39" t="inlineStr">
@@ -4723,9 +4723,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="S39" s="13" t="inlineStr">
-        <is>
-          <t>Exam72</t>
+      <c r="S39" s="10" t="inlineStr">
+        <is>
+          <t>Exam74</t>
         </is>
       </c>
     </row>
@@ -4750,9 +4750,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="E40" s="54" t="inlineStr">
+        <is>
+          <t>Exam20</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -4765,9 +4765,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="H40" s="26" t="inlineStr">
+        <is>
+          <t>Exam34</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
@@ -4780,7 +4780,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="K40" s="46" t="inlineStr">
+      <c r="K40" s="47" t="inlineStr">
         <is>
           <t>Exam51</t>
         </is>
@@ -4790,9 +4790,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="M40" s="24" t="inlineStr">
-        <is>
-          <t>Exam56</t>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
@@ -4800,9 +4800,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="O40" s="54" t="inlineStr">
-        <is>
-          <t>Exam62</t>
+      <c r="O40" s="5" t="inlineStr">
+        <is>
+          <t>Exam66</t>
         </is>
       </c>
       <c r="P40" t="inlineStr">
@@ -4820,9 +4820,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="S40" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="S40" s="3" t="inlineStr">
+        <is>
+          <t>Exam75</t>
         </is>
       </c>
     </row>
@@ -4862,9 +4862,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="H41" s="10" t="inlineStr">
-        <is>
-          <t>Exam34</t>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
@@ -4877,9 +4877,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="K41" s="4" t="inlineStr">
-        <is>
-          <t>Exam47</t>
+      <c r="K41" s="47" t="inlineStr">
+        <is>
+          <t>Exam51</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
@@ -4887,9 +4887,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="M41" s="5" t="inlineStr">
-        <is>
-          <t>Exam55</t>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
@@ -4897,9 +4897,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="O41" s="2" t="inlineStr">
-        <is>
-          <t>Exam66</t>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
       <c r="P41" t="inlineStr">
@@ -4917,9 +4917,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="S41" s="13" t="inlineStr">
-        <is>
-          <t>Exam72</t>
+      <c r="S41" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -4929,9 +4929,9 @@
           <t>Joseph Price</t>
         </is>
       </c>
-      <c r="B42" s="49" t="inlineStr">
-        <is>
-          <t>Exam4</t>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -4939,9 +4939,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="D42" s="55" t="inlineStr">
+        <is>
+          <t>Exam14</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -4954,9 +4954,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="G42" s="55" t="inlineStr">
-        <is>
-          <t>Exam30</t>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
@@ -4999,9 +4999,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="P42" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="P42" s="32" t="inlineStr">
+        <is>
+          <t>Exam67</t>
         </is>
       </c>
       <c r="Q42" t="inlineStr">
@@ -5014,9 +5014,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="S42" s="43" t="inlineStr">
-        <is>
-          <t>Exam75</t>
+      <c r="S42" s="10" t="inlineStr">
+        <is>
+          <t>Exam74</t>
         </is>
       </c>
     </row>
@@ -5026,9 +5026,9 @@
           <t>Katherine Bennett</t>
         </is>
       </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="B43" s="29" t="inlineStr">
+        <is>
+          <t>Exam4</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -5036,14 +5036,14 @@
           <t>-</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E43" s="31" t="inlineStr">
-        <is>
-          <t>Exam17</t>
+      <c r="D43" s="43" t="inlineStr">
+        <is>
+          <t>Exam12</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -5056,7 +5056,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="H43" s="10" t="inlineStr">
+      <c r="H43" s="26" t="inlineStr">
         <is>
           <t>Exam34</t>
         </is>
@@ -5081,14 +5081,14 @@
           <t>-</t>
         </is>
       </c>
-      <c r="M43" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="N43" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="M43" s="56" t="inlineStr">
+        <is>
+          <t>Exam55</t>
+        </is>
+      </c>
+      <c r="N43" s="44" t="inlineStr">
+        <is>
+          <t>Exam58</t>
         </is>
       </c>
       <c r="O43" t="inlineStr">
@@ -5111,9 +5111,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="S43" s="3" t="inlineStr">
-        <is>
-          <t>Exam74</t>
+      <c r="S43" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -5123,9 +5123,9 @@
           <t>Laura Jenkins</t>
         </is>
       </c>
-      <c r="B44" s="56" t="inlineStr">
-        <is>
-          <t>Exam3</t>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -5143,9 +5143,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="F44" s="50" t="inlineStr">
-        <is>
-          <t>Exam25</t>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
@@ -5163,14 +5163,14 @@
           <t>-</t>
         </is>
       </c>
-      <c r="J44" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="K44" s="46" t="inlineStr">
-        <is>
-          <t>Exam51</t>
+      <c r="J44" s="57" t="inlineStr">
+        <is>
+          <t>Exam41</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
       <c r="L44" t="inlineStr">
@@ -5183,9 +5183,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="N44" s="25" t="inlineStr">
-        <is>
-          <t>Exam57</t>
+      <c r="N44" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
       <c r="O44" t="inlineStr">
@@ -5265,9 +5265,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="K45" s="57" t="inlineStr">
-        <is>
-          <t>Exam50</t>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
       <c r="L45" t="inlineStr">
@@ -5285,14 +5285,14 @@
           <t>-</t>
         </is>
       </c>
-      <c r="O45" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="P45" s="34" t="inlineStr">
-        <is>
-          <t>Exam70</t>
+      <c r="O45" s="58" t="inlineStr">
+        <is>
+          <t>Exam62</t>
+        </is>
+      </c>
+      <c r="P45" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
       <c r="Q45" t="inlineStr">
@@ -5305,9 +5305,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="S45" s="3" t="inlineStr">
-        <is>
-          <t>Exam74</t>
+      <c r="S45" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -5352,9 +5352,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="I46" s="45" t="inlineStr">
-        <is>
-          <t>Exam39</t>
+      <c r="I46" s="59" t="inlineStr">
+        <is>
+          <t>Exam38</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -5362,9 +5362,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="K46" s="46" t="inlineStr">
-        <is>
-          <t>Exam51</t>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
       <c r="L46" t="inlineStr">
@@ -5382,9 +5382,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="O46" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="O46" s="5" t="inlineStr">
+        <is>
+          <t>Exam66</t>
         </is>
       </c>
       <c r="P46" t="inlineStr">
@@ -5414,9 +5414,9 @@
           <t>Louisa Powell</t>
         </is>
       </c>
-      <c r="B47" s="49" t="inlineStr">
-        <is>
-          <t>Exam4</t>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -5459,9 +5459,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="K47" s="58" t="inlineStr">
-        <is>
-          <t>Exam46</t>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
       <c r="L47" t="inlineStr">
@@ -5536,9 +5536,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="G48" s="37" t="inlineStr">
+        <is>
+          <t>Exam28</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
@@ -5546,9 +5546,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="I48" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="I48" s="8" t="inlineStr">
+        <is>
+          <t>Exam35</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -5576,14 +5576,14 @@
           <t>-</t>
         </is>
       </c>
-      <c r="O48" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="P48" s="11" t="inlineStr">
-        <is>
-          <t>Exam67</t>
+      <c r="O48" s="45" t="inlineStr">
+        <is>
+          <t>Exam64</t>
+        </is>
+      </c>
+      <c r="P48" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
       <c r="Q48" t="inlineStr">
@@ -5596,9 +5596,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="S48" s="3" t="inlineStr">
-        <is>
-          <t>Exam74</t>
+      <c r="S48" s="15" t="inlineStr">
+        <is>
+          <t>Exam72</t>
         </is>
       </c>
     </row>
@@ -5613,9 +5613,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="C49" s="44" t="inlineStr">
-        <is>
-          <t>Exam6</t>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -5668,9 +5668,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="N49" s="25" t="inlineStr">
-        <is>
-          <t>Exam57</t>
+      <c r="N49" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
       <c r="O49" t="inlineStr">
@@ -5678,9 +5678,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="P49" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="P49" s="32" t="inlineStr">
+        <is>
+          <t>Exam67</t>
         </is>
       </c>
       <c r="Q49" t="inlineStr">
@@ -5693,9 +5693,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="S49" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="S49" s="15" t="inlineStr">
+        <is>
+          <t>Exam72</t>
         </is>
       </c>
     </row>
@@ -5705,9 +5705,9 @@
           <t>Margaret Wood</t>
         </is>
       </c>
-      <c r="B50" s="59" t="inlineStr">
-        <is>
-          <t>Exam1</t>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -5715,14 +5715,14 @@
           <t>-</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="D50" s="41" t="inlineStr">
+        <is>
+          <t>Exam13</t>
         </is>
       </c>
       <c r="E50" s="60" t="inlineStr">
         <is>
-          <t>Exam19</t>
+          <t>Exam16</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -5735,14 +5735,14 @@
           <t>-</t>
         </is>
       </c>
-      <c r="H50" s="10" t="inlineStr">
-        <is>
-          <t>Exam34</t>
-        </is>
-      </c>
-      <c r="I50" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I50" s="8" t="inlineStr">
+        <is>
+          <t>Exam35</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -5755,9 +5755,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="L50" s="42" t="inlineStr">
-        <is>
-          <t>Exam53</t>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
       <c r="M50" t="inlineStr">
@@ -5770,7 +5770,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="O50" s="2" t="inlineStr">
+      <c r="O50" s="5" t="inlineStr">
         <is>
           <t>Exam66</t>
         </is>
@@ -5790,9 +5790,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="S50" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="S50" s="61" t="inlineStr">
+        <is>
+          <t>Exam73</t>
         </is>
       </c>
     </row>
@@ -5802,14 +5802,14 @@
           <t>Martha Butler</t>
         </is>
       </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C51" s="61" t="inlineStr">
-        <is>
-          <t>Exam10</t>
+      <c r="B51" s="62" t="inlineStr">
+        <is>
+          <t>Exam1</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -5817,9 +5817,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="E51" s="14" t="inlineStr">
+        <is>
+          <t>Exam17</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -5867,9 +5867,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="O51" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="O51" s="5" t="inlineStr">
+        <is>
+          <t>Exam66</t>
         </is>
       </c>
       <c r="P51" t="inlineStr">
@@ -5899,9 +5899,9 @@
           <t>Mary Ross</t>
         </is>
       </c>
-      <c r="B52" s="36" t="inlineStr">
-        <is>
-          <t>Exam2</t>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -5919,9 +5919,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="F52" s="63" t="inlineStr">
+        <is>
+          <t>Exam24</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
@@ -5934,9 +5934,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="I52" s="12" t="inlineStr">
-        <is>
-          <t>Exam35</t>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -5949,9 +5949,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="L52" s="34" t="inlineStr">
+        <is>
+          <t>Exam54</t>
         </is>
       </c>
       <c r="M52" t="inlineStr">
@@ -5959,14 +5959,14 @@
           <t>-</t>
         </is>
       </c>
-      <c r="N52" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="O52" s="54" t="inlineStr">
-        <is>
-          <t>Exam62</t>
+      <c r="N52" s="49" t="inlineStr">
+        <is>
+          <t>Exam59</t>
+        </is>
+      </c>
+      <c r="O52" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
       <c r="P52" t="inlineStr">
@@ -5984,9 +5984,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="S52" s="13" t="inlineStr">
-        <is>
-          <t>Exam72</t>
+      <c r="S52" s="10" t="inlineStr">
+        <is>
+          <t>Exam74</t>
         </is>
       </c>
     </row>
@@ -5996,9 +5996,9 @@
           <t>Matilda Henderson</t>
         </is>
       </c>
-      <c r="B53" s="49" t="inlineStr">
-        <is>
-          <t>Exam4</t>
+      <c r="B53" s="7" t="inlineStr">
+        <is>
+          <t>Exam5</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -6016,9 +6016,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="F53" s="63" t="inlineStr">
+        <is>
+          <t>Exam24</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
@@ -6031,14 +6031,14 @@
           <t>-</t>
         </is>
       </c>
-      <c r="I53" s="62" t="inlineStr">
-        <is>
-          <t>Exam38</t>
-        </is>
-      </c>
-      <c r="J53" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J53" s="11" t="inlineStr">
+        <is>
+          <t>Exam42</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
@@ -6046,9 +6046,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="L53" s="64" t="inlineStr">
+        <is>
+          <t>Exam52</t>
         </is>
       </c>
       <c r="M53" t="inlineStr">
@@ -6056,9 +6056,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="N53" s="33" t="inlineStr">
-        <is>
-          <t>Exam60</t>
+      <c r="N53" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
       <c r="O53" t="inlineStr">
@@ -6081,9 +6081,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="S53" s="13" t="inlineStr">
-        <is>
-          <t>Exam72</t>
+      <c r="S53" s="10" t="inlineStr">
+        <is>
+          <t>Exam74</t>
         </is>
       </c>
     </row>
@@ -6103,9 +6103,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="D54" s="30" t="inlineStr">
+        <is>
+          <t>Exam15</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -6118,14 +6118,14 @@
           <t>-</t>
         </is>
       </c>
-      <c r="G54" s="53" t="inlineStr">
-        <is>
-          <t>Exam26</t>
-        </is>
-      </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H54" s="26" t="inlineStr">
+        <is>
+          <t>Exam34</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
@@ -6133,14 +6133,14 @@
           <t>-</t>
         </is>
       </c>
-      <c r="J54" s="15" t="inlineStr">
-        <is>
-          <t>Exam42</t>
-        </is>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K54" s="47" t="inlineStr">
+        <is>
+          <t>Exam51</t>
         </is>
       </c>
       <c r="L54" t="inlineStr">
@@ -6158,14 +6158,14 @@
           <t>-</t>
         </is>
       </c>
-      <c r="O54" s="63" t="inlineStr">
-        <is>
-          <t>Exam63</t>
-        </is>
-      </c>
-      <c r="P54" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="O54" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P54" s="32" t="inlineStr">
+        <is>
+          <t>Exam67</t>
         </is>
       </c>
       <c r="Q54" t="inlineStr">
@@ -6178,9 +6178,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="S54" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="S54" s="15" t="inlineStr">
+        <is>
+          <t>Exam72</t>
         </is>
       </c>
     </row>
@@ -6200,9 +6200,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="D55" s="8" t="inlineStr">
-        <is>
-          <t>Exam12</t>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -6220,9 +6220,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="H55" s="26" t="inlineStr">
+        <is>
+          <t>Exam34</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
@@ -6235,9 +6235,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="K55" s="46" t="inlineStr">
-        <is>
-          <t>Exam51</t>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
       <c r="L55" t="inlineStr">
@@ -6250,9 +6250,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="N55" s="64" t="inlineStr">
-        <is>
-          <t>Exam59</t>
+      <c r="N55" s="44" t="inlineStr">
+        <is>
+          <t>Exam58</t>
         </is>
       </c>
       <c r="O55" t="inlineStr">
@@ -6260,9 +6260,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="P55" s="51" t="inlineStr">
-        <is>
-          <t>Exam68</t>
+      <c r="P55" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
       <c r="Q55" t="inlineStr">
@@ -6275,7 +6275,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="S55" s="6" t="inlineStr">
+      <c r="S55" s="65" t="inlineStr">
         <is>
           <t>Exam71</t>
         </is>
@@ -6292,9 +6292,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="C56" s="66" t="inlineStr">
+        <is>
+          <t>Exam9</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -6307,9 +6307,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="F56" s="1" t="inlineStr">
+        <is>
+          <t>Exam25</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
@@ -6317,9 +6317,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="H56" s="28" t="inlineStr">
+        <is>
+          <t>Exam32</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
@@ -6357,9 +6357,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="P56" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="P56" s="32" t="inlineStr">
+        <is>
+          <t>Exam67</t>
         </is>
       </c>
       <c r="Q56" t="inlineStr">
@@ -6372,9 +6372,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="S56" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="S56" s="61" t="inlineStr">
+        <is>
+          <t>Exam73</t>
         </is>
       </c>
     </row>
@@ -6449,9 +6449,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="O57" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="O57" s="40" t="inlineStr">
+        <is>
+          <t>Exam65</t>
         </is>
       </c>
       <c r="P57" t="inlineStr">
@@ -6469,9 +6469,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="S57" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="S57" s="15" t="inlineStr">
+        <is>
+          <t>Exam72</t>
         </is>
       </c>
     </row>
@@ -6481,14 +6481,14 @@
           <t>Patrick Foster</t>
         </is>
       </c>
-      <c r="B58" s="39" t="inlineStr">
-        <is>
-          <t>Exam5</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C58" s="19" t="inlineStr">
+        <is>
+          <t>Exam6</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -6516,9 +6516,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="I58" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="I58" s="8" t="inlineStr">
+        <is>
+          <t>Exam35</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -6526,9 +6526,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="K58" s="67" t="inlineStr">
+        <is>
+          <t>Exam43</t>
         </is>
       </c>
       <c r="L58" t="inlineStr">
@@ -6566,9 +6566,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="S58" s="13" t="inlineStr">
-        <is>
-          <t>Exam72</t>
+      <c r="S58" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -6588,14 +6588,14 @@
           <t>-</t>
         </is>
       </c>
-      <c r="D59" s="65" t="inlineStr">
-        <is>
-          <t>Exam11</t>
-        </is>
-      </c>
-      <c r="E59" s="31" t="inlineStr">
-        <is>
-          <t>Exam17</t>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
@@ -6608,9 +6608,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="H59" s="26" t="inlineStr">
+        <is>
+          <t>Exam34</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
@@ -6623,9 +6623,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="K59" s="66" t="inlineStr">
-        <is>
-          <t>Exam44</t>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
       <c r="L59" t="inlineStr">
@@ -6633,9 +6633,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="M59" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="M59" s="56" t="inlineStr">
+        <is>
+          <t>Exam55</t>
         </is>
       </c>
       <c r="N59" t="inlineStr">
@@ -6663,9 +6663,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="S59" s="13" t="inlineStr">
-        <is>
-          <t>Exam72</t>
+      <c r="S59" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -6695,9 +6695,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="F60" s="67" t="inlineStr">
-        <is>
-          <t>Exam23</t>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
@@ -6705,9 +6705,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="H60" s="68" t="inlineStr">
-        <is>
-          <t>Exam33</t>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
@@ -6715,14 +6715,14 @@
           <t>-</t>
         </is>
       </c>
-      <c r="J60" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="J60" s="57" t="inlineStr">
+        <is>
+          <t>Exam41</t>
+        </is>
+      </c>
+      <c r="K60" s="68" t="inlineStr">
+        <is>
+          <t>Exam45</t>
         </is>
       </c>
       <c r="L60" t="inlineStr">
@@ -6740,9 +6740,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="O60" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="O60" s="53" t="inlineStr">
+        <is>
+          <t>Exam61</t>
         </is>
       </c>
       <c r="P60" t="inlineStr">
@@ -6760,9 +6760,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="S60" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="S60" s="15" t="inlineStr">
+        <is>
+          <t>Exam72</t>
         </is>
       </c>
     </row>
@@ -6797,14 +6797,14 @@
           <t>-</t>
         </is>
       </c>
-      <c r="G61" s="69" t="inlineStr">
-        <is>
-          <t>Exam27</t>
-        </is>
-      </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H61" s="26" t="inlineStr">
+        <is>
+          <t>Exam34</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
@@ -6837,9 +6837,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="O61" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="O61" s="69" t="inlineStr">
+        <is>
+          <t>Exam63</t>
         </is>
       </c>
       <c r="P61" t="inlineStr">
@@ -6857,9 +6857,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="S61" s="3" t="inlineStr">
-        <is>
-          <t>Exam74</t>
+      <c r="S61" s="61" t="inlineStr">
+        <is>
+          <t>Exam73</t>
         </is>
       </c>
     </row>
@@ -6879,9 +6879,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="D62" s="55" t="inlineStr">
+        <is>
+          <t>Exam14</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -6889,9 +6889,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="F62" s="67" t="inlineStr">
-        <is>
-          <t>Exam23</t>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
@@ -6904,9 +6904,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="I62" s="12" t="inlineStr">
-        <is>
-          <t>Exam35</t>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -6919,9 +6919,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="L62" s="64" t="inlineStr">
+        <is>
+          <t>Exam52</t>
         </is>
       </c>
       <c r="M62" t="inlineStr">
@@ -6929,9 +6929,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="N62" s="64" t="inlineStr">
-        <is>
-          <t>Exam59</t>
+      <c r="N62" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
       <c r="O62" t="inlineStr">
@@ -6971,9 +6971,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="C63" s="19" t="inlineStr">
+        <is>
+          <t>Exam6</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -6986,9 +6986,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="F63" s="70" t="inlineStr">
-        <is>
-          <t>Exam21</t>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
@@ -6996,9 +6996,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="H63" s="10" t="inlineStr">
-        <is>
-          <t>Exam34</t>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
@@ -7011,9 +7011,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="K63" s="67" t="inlineStr">
+        <is>
+          <t>Exam43</t>
         </is>
       </c>
       <c r="L63" t="inlineStr">
@@ -7026,19 +7026,19 @@
           <t>-</t>
         </is>
       </c>
-      <c r="N63" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="O63" s="71" t="inlineStr">
-        <is>
-          <t>Exam64</t>
-        </is>
-      </c>
-      <c r="P63" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="N63" s="18" t="inlineStr">
+        <is>
+          <t>Exam57</t>
+        </is>
+      </c>
+      <c r="O63" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P63" s="32" t="inlineStr">
+        <is>
+          <t>Exam67</t>
         </is>
       </c>
       <c r="Q63" t="inlineStr">
@@ -7051,9 +7051,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="S63" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="S63" s="10" t="inlineStr">
+        <is>
+          <t>Exam74</t>
         </is>
       </c>
     </row>
@@ -7103,14 +7103,14 @@
           <t>-</t>
         </is>
       </c>
-      <c r="J64" s="72" t="inlineStr">
-        <is>
-          <t>Exam41</t>
-        </is>
-      </c>
-      <c r="K64" s="57" t="inlineStr">
-        <is>
-          <t>Exam50</t>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
       <c r="L64" t="inlineStr">
@@ -7128,14 +7128,14 @@
           <t>-</t>
         </is>
       </c>
-      <c r="O64" s="2" t="inlineStr">
-        <is>
-          <t>Exam66</t>
-        </is>
-      </c>
-      <c r="P64" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="O64" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P64" s="48" t="inlineStr">
+        <is>
+          <t>Exam70</t>
         </is>
       </c>
       <c r="Q64" t="inlineStr">
@@ -7148,9 +7148,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="S64" s="35" t="inlineStr">
-        <is>
-          <t>Exam73</t>
+      <c r="S64" s="10" t="inlineStr">
+        <is>
+          <t>Exam74</t>
         </is>
       </c>
     </row>
@@ -7195,9 +7195,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="I65" s="12" t="inlineStr">
-        <is>
-          <t>Exam35</t>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -7225,9 +7225,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="O65" s="63" t="inlineStr">
-        <is>
-          <t>Exam63</t>
+      <c r="O65" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
       <c r="P65" t="inlineStr">
@@ -7272,9 +7272,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="E66" s="70" t="inlineStr">
+        <is>
+          <t>Exam19</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
@@ -7282,14 +7282,14 @@
           <t>-</t>
         </is>
       </c>
-      <c r="G66" s="55" t="inlineStr">
-        <is>
-          <t>Exam30</t>
-        </is>
-      </c>
-      <c r="H66" s="68" t="inlineStr">
-        <is>
-          <t>Exam33</t>
+      <c r="G66" s="21" t="inlineStr">
+        <is>
+          <t>Exam29</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
@@ -7302,9 +7302,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="K66" s="73" t="inlineStr">
-        <is>
-          <t>Exam43</t>
+      <c r="K66" s="71" t="inlineStr">
+        <is>
+          <t>Exam47</t>
         </is>
       </c>
       <c r="L66" t="inlineStr">
@@ -7322,9 +7322,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="O66" s="41" t="inlineStr">
-        <is>
-          <t>Exam61</t>
+      <c r="O66" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
       <c r="P66" t="inlineStr">
@@ -7384,9 +7384,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="H67" s="1" t="inlineStr">
-        <is>
-          <t>Exam32</t>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
@@ -7394,9 +7394,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="J67" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="J67" s="38" t="inlineStr">
+        <is>
+          <t>Exam40</t>
         </is>
       </c>
       <c r="K67" t="inlineStr">
@@ -7456,9 +7456,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="C68" s="72" t="inlineStr">
+        <is>
+          <t>Exam10</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -7491,14 +7491,14 @@
           <t>-</t>
         </is>
       </c>
-      <c r="J68" s="20" t="inlineStr">
-        <is>
-          <t>Exam40</t>
-        </is>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K68" s="47" t="inlineStr">
+        <is>
+          <t>Exam51</t>
         </is>
       </c>
       <c r="L68" t="inlineStr">
@@ -7516,14 +7516,14 @@
           <t>-</t>
         </is>
       </c>
-      <c r="O68" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="P68" s="11" t="inlineStr">
-        <is>
-          <t>Exam67</t>
+      <c r="O68" s="58" t="inlineStr">
+        <is>
+          <t>Exam62</t>
+        </is>
+      </c>
+      <c r="P68" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
       <c r="Q68" t="inlineStr">
@@ -7536,7 +7536,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="S68" s="3" t="inlineStr">
+      <c r="S68" s="10" t="inlineStr">
         <is>
           <t>Exam74</t>
         </is>
@@ -7553,9 +7553,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="C69" s="44" t="inlineStr">
-        <is>
-          <t>Exam6</t>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -7583,7 +7583,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="I69" s="12" t="inlineStr">
+      <c r="I69" s="8" t="inlineStr">
         <is>
           <t>Exam35</t>
         </is>
@@ -7593,9 +7593,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="K69" s="71" t="inlineStr">
+        <is>
+          <t>Exam47</t>
         </is>
       </c>
       <c r="L69" t="inlineStr">
@@ -7613,9 +7613,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="O69" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="O69" s="5" t="inlineStr">
+        <is>
+          <t>Exam66</t>
         </is>
       </c>
       <c r="P69" t="inlineStr">
@@ -7633,9 +7633,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="S69" s="13" t="inlineStr">
-        <is>
-          <t>Exam72</t>
+      <c r="S69" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -7670,14 +7670,14 @@
           <t>-</t>
         </is>
       </c>
-      <c r="G70" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H70" s="10" t="inlineStr">
-        <is>
-          <t>Exam34</t>
+      <c r="G70" s="37" t="inlineStr">
+        <is>
+          <t>Exam28</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
@@ -7685,9 +7685,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="J70" s="72" t="inlineStr">
-        <is>
-          <t>Exam41</t>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
       <c r="K70" t="inlineStr">
@@ -7730,9 +7730,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="S70" s="13" t="inlineStr">
-        <is>
-          <t>Exam72</t>
+      <c r="S70" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -7742,7 +7742,7 @@
           <t>Thomas Ross</t>
         </is>
       </c>
-      <c r="B71" s="56" t="inlineStr">
+      <c r="B71" s="36" t="inlineStr">
         <is>
           <t>Exam3</t>
         </is>
@@ -7752,9 +7752,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="D71" s="52" t="inlineStr">
-        <is>
-          <t>Exam13</t>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -7767,14 +7767,14 @@
           <t>-</t>
         </is>
       </c>
-      <c r="G71" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H71" s="10" t="inlineStr">
-        <is>
-          <t>Exam34</t>
+      <c r="G71" s="37" t="inlineStr">
+        <is>
+          <t>Exam28</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
@@ -7812,9 +7812,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="P71" s="11" t="inlineStr">
-        <is>
-          <t>Exam67</t>
+      <c r="P71" s="48" t="inlineStr">
+        <is>
+          <t>Exam70</t>
         </is>
       </c>
       <c r="Q71" t="inlineStr">
@@ -7854,9 +7854,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="E72" s="31" t="inlineStr">
-        <is>
-          <t>Exam17</t>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
@@ -7869,14 +7869,14 @@
           <t>-</t>
         </is>
       </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I72" s="74" t="inlineStr">
-        <is>
-          <t>Exam36</t>
+      <c r="H72" s="26" t="inlineStr">
+        <is>
+          <t>Exam34</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -7889,9 +7889,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="L72" s="38" t="inlineStr">
-        <is>
-          <t>Exam52</t>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
       <c r="M72" t="inlineStr">
@@ -7904,14 +7904,14 @@
           <t>-</t>
         </is>
       </c>
-      <c r="O72" s="2" t="inlineStr">
-        <is>
-          <t>Exam66</t>
-        </is>
-      </c>
-      <c r="P72" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="O72" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P72" s="27" t="inlineStr">
+        <is>
+          <t>Exam69</t>
         </is>
       </c>
       <c r="Q72" t="inlineStr">
@@ -7936,9 +7936,9 @@
           <t>Walter Gray</t>
         </is>
       </c>
-      <c r="B73" s="56" t="inlineStr">
-        <is>
-          <t>Exam3</t>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -7971,9 +7971,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="I73" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="I73" s="73" t="inlineStr">
+        <is>
+          <t>Exam37</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -7981,9 +7981,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="K73" s="73" t="inlineStr">
-        <is>
-          <t>Exam43</t>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
       <c r="L73" t="inlineStr">
@@ -8006,9 +8006,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="P73" s="11" t="inlineStr">
-        <is>
-          <t>Exam67</t>
+      <c r="P73" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
       <c r="Q73" t="inlineStr">
@@ -8021,9 +8021,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="S73" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="S73" s="65" t="inlineStr">
+        <is>
+          <t>Exam71</t>
         </is>
       </c>
     </row>
@@ -8043,19 +8043,19 @@
           <t>-</t>
         </is>
       </c>
-      <c r="D74" s="22" t="inlineStr">
-        <is>
-          <t>Exam15</t>
-        </is>
-      </c>
-      <c r="E74" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F74" s="50" t="inlineStr">
-        <is>
-          <t>Exam25</t>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E74" s="60" t="inlineStr">
+        <is>
+          <t>Exam16</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
@@ -8068,9 +8068,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="I74" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="I74" s="74" t="inlineStr">
+        <is>
+          <t>Exam36</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
@@ -8098,14 +8098,14 @@
           <t>-</t>
         </is>
       </c>
-      <c r="O74" s="2" t="inlineStr">
-        <is>
-          <t>Exam66</t>
-        </is>
-      </c>
-      <c r="P74" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="O74" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P74" s="32" t="inlineStr">
+        <is>
+          <t>Exam67</t>
         </is>
       </c>
       <c r="Q74" t="inlineStr">
@@ -8118,7 +8118,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="S74" s="3" t="inlineStr">
+      <c r="S74" s="10" t="inlineStr">
         <is>
           <t>Exam74</t>
         </is>
@@ -8150,19 +8150,19 @@
           <t>-</t>
         </is>
       </c>
-      <c r="F75" s="28" t="inlineStr">
-        <is>
-          <t>Exam24</t>
-        </is>
-      </c>
-      <c r="G75" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G75" s="16" t="inlineStr">
+        <is>
+          <t>Exam30</t>
+        </is>
+      </c>
+      <c r="H75" s="52" t="inlineStr">
+        <is>
+          <t>Exam31</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
@@ -8175,9 +8175,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="K75" s="51" t="inlineStr">
+        <is>
+          <t>Exam49</t>
         </is>
       </c>
       <c r="L75" t="inlineStr">
@@ -8195,9 +8195,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="O75" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="O75" s="69" t="inlineStr">
+        <is>
+          <t>Exam63</t>
         </is>
       </c>
       <c r="P75" t="inlineStr">
@@ -8232,9 +8232,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="C76" s="75" t="inlineStr">
-        <is>
-          <t>Exam7</t>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -8242,9 +8242,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="E76" s="9" t="inlineStr">
-        <is>
-          <t>Exam16</t>
+      <c r="E76" s="75" t="inlineStr">
+        <is>
+          <t>Exam18</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
@@ -8252,19 +8252,19 @@
           <t>-</t>
         </is>
       </c>
-      <c r="G76" s="32" t="inlineStr">
-        <is>
-          <t>Exam28</t>
-        </is>
-      </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I76" s="12" t="inlineStr">
-        <is>
-          <t>Exam35</t>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H76" s="26" t="inlineStr">
+        <is>
+          <t>Exam34</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -8292,9 +8292,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="O76" s="71" t="inlineStr">
-        <is>
-          <t>Exam64</t>
+      <c r="O76" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
       <c r="P76" t="inlineStr">
@@ -8312,9 +8312,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="S76" s="35" t="inlineStr">
-        <is>
-          <t>Exam73</t>
+      <c r="S76" s="10" t="inlineStr">
+        <is>
+          <t>Exam74</t>
         </is>
       </c>
     </row>
